--- a/biology/Médecine/Hollywood_Private_Hospital/Hollywood_Private_Hospital.xlsx
+++ b/biology/Médecine/Hollywood_Private_Hospital/Hollywood_Private_Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hollywood Private Hospital (Hollywood) est un hôpital situé à Nedlands (Cité de Nedlands) fondé en 1942. Il est le plus grand hôpital privé d'Australie-Occidentale, avec un total de 738 lits. L'hôpital fait partie du Ramsay Health Care Group et compte plus de 700 spécialistes accrédités travaillant dans un large éventail de disciplines, notamment la cardiologie, la gastroentérologie, la médecine générale, la chirurgie générale, l'oncologie, l'orthopédie, les soins palliatifs, la psychiatrie, la réadaptation et l'urologie. Hollywood emploie plus de 2 000 personnes et accueille 70 000 patients chaque année.
@@ -512,7 +524,9 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hollywood offre un large éventail de spécialités dont :
 soins et rééducation des personnes âgées,
@@ -573,7 +587,9 @@
           <t>Bâtiment</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'hôpital comprend quatre ailes: l'aile Anne Leach, l'aile Marjorie Brislee, l'aile Vivian Bullwinkel et l'aile Sylvia Perry. Tous les quartiers et unités portent le nom d'Australiens de l'Ouest qui ont reçu la Croix de Victoria et la Croix de George :
 Unité Alfred Gaby (Croix de Victoria)
